--- a/Neural Network Classifier/nn_performance_metrics.xlsx
+++ b/Neural Network Classifier/nn_performance_metrics.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5024999999999999</v>
+        <v>0.517</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5007235875540941</v>
+        <v>0.5069403397811135</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1257451785624004</v>
+        <v>-0.3467630493007434</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4990620048940182</v>
+        <v>0.4961620001459051</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2814022408489486</v>
+        <v>0.3366500227429445</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.530473600520279</v>
+        <v>0.5802154968138515</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2550664115.947511</v>
+        <v>2378318411.621277</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1376507139503024</v>
+        <v>0.1623438810920448</v>
       </c>
     </row>
   </sheetData>
